--- a/Formato_VisaNuevo/Upload_Template.xlsx
+++ b/Formato_VisaNuevo/Upload_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14930" windowHeight="3870" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14930" windowHeight="3870" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="308">
   <si>
     <t>BID</t>
   </si>
@@ -970,9 +970,6 @@
   </si>
   <si>
     <t>Número total de cuentas compañeras</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1217,12 +1214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,10 +2125,10 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:B18"/>
+      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2200,7 +2197,9 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -2227,7 +2226,9 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2254,7 +2255,9 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2281,7 +2284,9 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2308,7 +2313,9 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2335,331 +2342,357 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>2882</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1708</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="3">
-        <v>34237429</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>420390</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>53707</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>5925263</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1262148</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>18020774</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="3">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>4207</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>2115</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="3">
-        <v>25453831</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>697948</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>95654</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>12816688</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>2711642</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>26484225</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="3">
-        <v>1429</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>5273</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>3009</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="3">
-        <v>34857102</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>1616196</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>180469</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>19826187</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>2333288</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>43310635</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3638</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>747</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="3">
-        <v>1815655</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>282899</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>8471</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>2302836</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>38992</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>775473</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="3">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>4333</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>797</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="3">
-        <v>1793291</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>335539</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>4941</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>3010024</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>17380</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>881528</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="3">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>5121</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>1011</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="3">
-        <v>1846744</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>379689</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>14772</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>3756343</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>17510</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>1066554</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -2686,7 +2719,9 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -2713,7 +2748,9 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2740,7 +2777,9 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -2767,7 +2806,9 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -2794,7 +2835,9 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -2821,7 +2864,9 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -2848,7 +2893,9 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2875,7 +2922,9 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -2902,7 +2951,9 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -2929,7 +2980,9 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -2956,7 +3009,9 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -2983,169 +3038,183 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="3">
-        <v>4089</v>
+        <v>1073</v>
       </c>
       <c r="C32" s="3">
-        <v>14664</v>
+        <v>499</v>
       </c>
       <c r="D32" s="3">
-        <v>411</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>141567</v>
+        <v>3638</v>
       </c>
       <c r="G32" s="3">
-        <v>13713</v>
+        <v>23</v>
       </c>
       <c r="H32" s="3">
-        <v>242381</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>652</v>
+      </c>
+      <c r="I32" s="6">
+        <v>747</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="3">
-        <v>1422201</v>
+        <v>1815655</v>
       </c>
       <c r="C33" s="3">
-        <v>1843454</v>
+        <v>282899</v>
       </c>
       <c r="D33" s="3">
-        <v>196349</v>
+        <v>8471</v>
       </c>
       <c r="E33" s="3">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>20263134</v>
+        <v>2302836</v>
       </c>
       <c r="G33" s="3">
-        <v>4008870</v>
+        <v>38992</v>
       </c>
       <c r="H33" s="3">
-        <v>56899806</v>
-      </c>
-      <c r="I33" s="6"/>
+        <v>605381</v>
+      </c>
+      <c r="I33" s="6">
+        <v>775473</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="3">
-        <v>5420</v>
+        <v>1034</v>
       </c>
       <c r="C34" s="3">
-        <v>17410</v>
+        <v>622</v>
       </c>
       <c r="D34" s="3">
-        <v>683</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>181929</v>
+        <v>4333</v>
       </c>
       <c r="G34" s="3">
-        <v>17279</v>
+        <v>14</v>
       </c>
       <c r="H34" s="3">
-        <v>291584</v>
-      </c>
-      <c r="I34" s="6"/>
+        <v>761</v>
+      </c>
+      <c r="I34" s="6">
+        <v>797</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="3">
-        <v>2053305</v>
+        <v>1793291</v>
       </c>
       <c r="C35" s="3">
-        <v>2776465</v>
+        <v>335539</v>
       </c>
       <c r="D35" s="3">
-        <v>281832</v>
+        <v>4941</v>
       </c>
       <c r="E35" s="3">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>34721391</v>
+        <v>3010024</v>
       </c>
       <c r="G35" s="3">
-        <v>5647905</v>
+        <v>17380</v>
       </c>
       <c r="H35" s="3">
-        <v>71326222</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>667160</v>
+      </c>
+      <c r="I35" s="6">
+        <v>881528</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="3">
-        <v>8338</v>
+        <v>1074</v>
       </c>
       <c r="C36" s="3">
-        <v>24562</v>
+        <v>665</v>
       </c>
       <c r="D36" s="3">
-        <v>1497</v>
+        <v>10</v>
       </c>
       <c r="E36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>276337</v>
+        <v>5121</v>
       </c>
       <c r="G36" s="3">
-        <v>27002</v>
+        <v>15</v>
       </c>
       <c r="H36" s="3">
-        <v>419222</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>859</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1011</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="3">
-        <v>2894901</v>
+        <v>1846744</v>
       </c>
       <c r="C37" s="3">
-        <v>4034303</v>
+        <v>379689</v>
       </c>
       <c r="D37" s="3">
-        <v>576210</v>
+        <v>14772</v>
       </c>
       <c r="E37" s="3">
-        <v>6282</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>52238465</v>
+        <v>3756343</v>
       </c>
       <c r="G37" s="3">
-        <v>9113104</v>
+        <v>17510</v>
       </c>
       <c r="H37" s="3">
-        <v>100993318</v>
-      </c>
-      <c r="I37" s="6"/>
+        <v>746111</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1066554</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -3172,7 +3241,9 @@
       <c r="H38" s="3">
         <v>0</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -3199,7 +3270,9 @@
       <c r="H39" s="3">
         <v>0</v>
       </c>
-      <c r="I39" s="6"/>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -3226,7 +3299,9 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -3253,7 +3328,9 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="6"/>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -3280,7 +3357,9 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="6"/>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -3307,17 +3386,19 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="6"/>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -3326,25 +3407,27 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>244</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="3">
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>19040</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -3353,79 +3436,85 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>91318</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>5557</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>84630</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B46" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>255</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="3">
-        <v>5350</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3">
-        <v>10469</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>77857</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>4870</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>76896</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3434,25 +3523,27 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>569</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="3">
-        <v>9741</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>18444</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3461,349 +3552,375 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>116391</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>125981</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B50" s="3">
-        <v>4155</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3">
-        <v>7070</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>51851</v>
+        <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>5826</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>110140</v>
-      </c>
-      <c r="I50" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>1871462</v>
+        <v>0</v>
       </c>
       <c r="C51" s="3">
-        <v>446160</v>
+        <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>584822</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>4429</v>
+        <v>0</v>
       </c>
       <c r="F51" s="3">
-        <v>3992031</v>
+        <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>1470654</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>16389682</v>
-      </c>
-      <c r="I51" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="3">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3">
-        <v>7721</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>58193</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>6482</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>118070</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="3">
-        <v>2278473</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3">
-        <v>537478</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>794928</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>4983315</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>1595946</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>18844760</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B54" s="3">
-        <v>5869</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3">
-        <v>9174</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>76440</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>8744</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>148496</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="3">
-        <v>2623229</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>635556</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3">
-        <v>771928</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>7066634</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>2214589</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>24751603</v>
-      </c>
-      <c r="I55" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>4089</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>14664</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="E56" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>141567</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>13713</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6"/>
+        <v>44207</v>
+      </c>
+      <c r="I56" s="6">
+        <v>242381</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="3">
-        <v>0</v>
+        <v>1422201</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>1843454</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>196349</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>20263134</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>4008870</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>6904445</v>
+      </c>
+      <c r="I57" s="6">
+        <v>56899806</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>5420</v>
       </c>
       <c r="C58" s="3">
-        <v>0</v>
+        <v>17410</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>181929</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>17279</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6"/>
+        <v>53851</v>
+      </c>
+      <c r="I58" s="6">
+        <v>291584</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B59" s="3">
-        <v>0</v>
+        <v>2053305</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>2776465</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>281832</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>34721391</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>5647905</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6"/>
+        <v>10547630</v>
+      </c>
+      <c r="I59" s="6">
+        <v>71326222</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
+        <v>8338</v>
       </c>
       <c r="C60" s="3">
-        <v>0</v>
+        <v>24562</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1497</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>276337</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>27002</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6"/>
+        <v>75898</v>
+      </c>
+      <c r="I60" s="6">
+        <v>419222</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
+        <v>2894901</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
+        <v>4034303</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>576210</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>6282</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>52238465</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>9113104</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6"/>
+        <v>15130122</v>
+      </c>
+      <c r="I61" s="6">
+        <v>100993318</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B62" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C62" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -3812,25 +3929,27 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>297</v>
-      </c>
-      <c r="I62" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="3">
-        <v>10384</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3">
-        <v>8906</v>
+        <v>0</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -3839,25 +3958,27 @@
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>32196</v>
+        <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>16975</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>156545</v>
-      </c>
-      <c r="I63" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -3866,25 +3987,27 @@
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3">
-        <v>366</v>
-      </c>
-      <c r="I64" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="3">
-        <v>9572</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3">
-        <v>13024</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -3893,25 +4016,27 @@
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>40207</v>
+        <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>39317</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>164398</v>
-      </c>
-      <c r="I65" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -3920,25 +4045,27 @@
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>480</v>
-      </c>
-      <c r="I66" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B67" s="3">
-        <v>28848</v>
+        <v>0</v>
       </c>
       <c r="C67" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -3947,69 +4074,75 @@
         <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>42963</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>27011</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>213448</v>
-      </c>
-      <c r="I67" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B68" s="3">
-        <v>30589282</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3">
-        <v>6636897</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>13813</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>46069233</v>
+        <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>2195695</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>60946203</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B69" s="3">
-        <v>1724790</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3">
-        <v>1684835</v>
+        <v>0</v>
       </c>
       <c r="D69" s="3">
-        <v>55888</v>
+        <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="F69" s="3">
-        <v>10415664</v>
+        <v>0</v>
       </c>
       <c r="G69" s="3">
-        <v>98207</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>6926970</v>
-      </c>
-      <c r="I69" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
@@ -4036,7 +4169,9 @@
       <c r="H70" s="3">
         <v>0</v>
       </c>
-      <c r="I70" s="6"/>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
@@ -4063,7 +4198,9 @@
       <c r="H71" s="3">
         <v>0</v>
       </c>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -4090,7 +4227,9 @@
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
@@ -4117,17 +4256,19 @@
       <c r="H73" s="3">
         <v>0</v>
       </c>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B74" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -4136,25 +4277,27 @@
         <v>0</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H74" s="3">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="I74" s="6">
+        <v>244</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B75" s="3">
-        <v>0</v>
+        <v>6650</v>
       </c>
       <c r="C75" s="3">
-        <v>0</v>
+        <v>19040</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -4163,150 +4306,162 @@
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>91318</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>5557</v>
       </c>
       <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6"/>
+        <v>25319</v>
+      </c>
+      <c r="I75" s="6">
+        <v>84630</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B76" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="I76" s="6">
+        <v>255</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B77" s="3">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="C77" s="3">
-        <v>0</v>
+        <v>10469</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
       </c>
       <c r="F77" s="3">
-        <v>0</v>
+        <v>77857</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>4870</v>
       </c>
       <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6"/>
+        <v>20419</v>
+      </c>
+      <c r="I77" s="6">
+        <v>76896</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B78" s="3">
-        <v>362616</v>
+        <v>26</v>
       </c>
       <c r="C78" s="3">
-        <v>146185</v>
+        <v>122</v>
       </c>
       <c r="D78" s="3">
-        <v>81147</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3">
-        <v>6962</v>
+        <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>1812478</v>
+        <v>721</v>
       </c>
       <c r="G78" s="3">
-        <v>893449</v>
+        <v>23</v>
       </c>
       <c r="H78" s="3">
-        <v>7243142</v>
-      </c>
-      <c r="I78" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="I78" s="6">
+        <v>569</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B79" s="3">
-        <v>91539</v>
+        <v>9741</v>
       </c>
       <c r="C79" s="3">
-        <v>81100</v>
+        <v>18444</v>
       </c>
       <c r="D79" s="3">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
       </c>
       <c r="F79" s="3">
-        <v>1355131</v>
+        <v>116391</v>
       </c>
       <c r="G79" s="3">
-        <v>146197</v>
+        <v>4697</v>
       </c>
       <c r="H79" s="3">
-        <v>2026803</v>
-      </c>
-      <c r="I79" s="6"/>
+        <v>30223</v>
+      </c>
+      <c r="I79" s="6">
+        <v>125981</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B80" s="3">
-        <v>20806</v>
+        <v>0</v>
       </c>
       <c r="C80" s="3">
-        <v>26343</v>
+        <v>0</v>
       </c>
       <c r="D80" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F80" s="3">
-        <v>235115</v>
+        <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>3377</v>
+        <v>0</v>
       </c>
       <c r="H80" s="3">
-        <v>103241</v>
-      </c>
-      <c r="I80" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -4333,61 +4488,67 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B82" s="3">
-        <v>23377</v>
+        <v>0</v>
       </c>
       <c r="C82" s="3">
-        <v>28750</v>
+        <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>4927</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>249698</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>5818</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>135180</v>
-      </c>
-      <c r="I82" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="3">
-        <v>20806</v>
+        <v>0</v>
       </c>
       <c r="C83" s="3">
-        <v>26343</v>
+        <v>0</v>
       </c>
       <c r="D83" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>235115</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>3377</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>103241</v>
-      </c>
-      <c r="I83" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -4414,71 +4575,77 @@
       <c r="H84" s="3">
         <v>0</v>
       </c>
-      <c r="I84" s="6"/>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B85" s="3">
-        <v>13395</v>
+        <v>0</v>
       </c>
       <c r="C85" s="3">
-        <v>16452</v>
+        <v>0</v>
       </c>
       <c r="D85" s="3">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>129619</v>
+        <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>3039</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
-        <v>73671</v>
-      </c>
-      <c r="I85" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B86" s="3">
-        <v>537595341</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3">
-        <v>36563160</v>
+        <v>0</v>
       </c>
       <c r="D86" s="3">
-        <v>697503</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F86" s="3">
-        <v>401863007</v>
+        <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>54753658</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>761662616</v>
-      </c>
-      <c r="I86" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B87" s="3">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C87" s="3">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -4487,25 +4654,27 @@
         <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H87" s="3">
-        <v>235</v>
-      </c>
-      <c r="I87" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B88" s="3">
-        <v>754178</v>
+        <v>0</v>
       </c>
       <c r="C88" s="3">
-        <v>23671</v>
+        <v>0</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -4514,25 +4683,27 @@
         <v>0</v>
       </c>
       <c r="F88" s="3">
-        <v>108766</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>2723</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>72146</v>
-      </c>
-      <c r="I88" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B89" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -4541,25 +4712,27 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>20</v>
-      </c>
-      <c r="I89" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B90" s="3">
-        <v>465921</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -4568,15 +4741,17 @@
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>4367</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <v>20414</v>
-      </c>
-      <c r="I90" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -4595,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4603,7 +4778,9 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="6"/>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -4622,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -4630,14 +4807,16 @@
       <c r="H92" s="3">
         <v>0</v>
       </c>
-      <c r="I92" s="6"/>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
@@ -4649,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
         <v>0</v>
@@ -4657,14 +4836,16 @@
       <c r="H93" s="3">
         <v>0</v>
       </c>
-      <c r="I93" s="6"/>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
@@ -4676,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4684,61 +4865,67 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="6"/>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B95" s="3">
-        <v>2355</v>
+        <v>0</v>
       </c>
       <c r="C95" s="3">
-        <v>8866</v>
+        <v>0</v>
       </c>
       <c r="D95" s="3">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" s="3">
-        <v>75795</v>
+        <v>0</v>
       </c>
       <c r="G95" s="3">
-        <v>2285</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>63561</v>
-      </c>
-      <c r="I95" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B96" s="3">
-        <v>6291</v>
+        <v>0</v>
       </c>
       <c r="C96" s="3">
-        <v>15848</v>
+        <v>0</v>
       </c>
       <c r="D96" s="3">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>88819</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>79069</v>
-      </c>
-      <c r="I96" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
@@ -4765,1103 +4952,2329 @@
       <c r="H97" s="3">
         <v>0</v>
       </c>
-      <c r="I97" s="6"/>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B98" s="3">
-        <v>262208627</v>
+        <v>4155</v>
       </c>
       <c r="C98" s="3">
-        <v>151485979</v>
+        <v>7070</v>
       </c>
       <c r="D98" s="3">
-        <v>38132223</v>
+        <v>843</v>
       </c>
       <c r="E98" s="3">
-        <v>4707468</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3">
-        <v>419327541</v>
+        <v>51851</v>
       </c>
       <c r="G98" s="3">
-        <v>219329695</v>
+        <v>5826</v>
       </c>
       <c r="H98" s="3">
-        <v>1334468023</v>
-      </c>
-      <c r="I98" s="6"/>
+        <v>21254</v>
+      </c>
+      <c r="I98" s="6">
+        <v>110140</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B99" s="3">
-        <v>0</v>
+        <v>1871462</v>
       </c>
       <c r="C99" s="3">
-        <v>0</v>
+        <v>446160</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>584822</v>
       </c>
       <c r="E99" s="3">
-        <v>0</v>
+        <v>4429</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>3992031</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>1470654</v>
       </c>
       <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6"/>
+        <v>1972655</v>
+      </c>
+      <c r="I99" s="6">
+        <v>16389682</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B100" s="3">
-        <v>0</v>
+        <v>4917</v>
       </c>
       <c r="C100" s="3">
-        <v>0</v>
+        <v>7721</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>58193</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>6482</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6"/>
+        <v>22770</v>
+      </c>
+      <c r="I100" s="6">
+        <v>118070</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>2278473</v>
       </c>
       <c r="C101" s="3">
-        <v>0</v>
+        <v>537478</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>794928</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>4983315</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1595946</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6"/>
+        <v>2387478</v>
+      </c>
+      <c r="I101" s="6">
+        <v>18844760</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="6"/>
+      <c r="B102" s="3">
+        <v>5869</v>
+      </c>
+      <c r="C102" s="3">
+        <v>9174</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1215</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>76440</v>
+      </c>
+      <c r="G102" s="3">
+        <v>8744</v>
+      </c>
+      <c r="H102" s="3">
+        <v>28876</v>
+      </c>
+      <c r="I102" s="6">
+        <v>148496</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="6"/>
+      <c r="B103" s="3">
+        <v>2623229</v>
+      </c>
+      <c r="C103" s="3">
+        <v>635556</v>
+      </c>
+      <c r="D103" s="3">
+        <v>771928</v>
+      </c>
+      <c r="E103" s="3">
+        <v>653</v>
+      </c>
+      <c r="F103" s="3">
+        <v>7066634</v>
+      </c>
+      <c r="G103" s="3">
+        <v>2214589</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3020118</v>
+      </c>
+      <c r="I103" s="6">
+        <v>24751603</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="6"/>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="6"/>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="6"/>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="6"/>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="6"/>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="6"/>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="6"/>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="6"/>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="6"/>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="6"/>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="6"/>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="6"/>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="6"/>
+      <c r="B116" s="3">
+        <v>13</v>
+      </c>
+      <c r="C116" s="3">
+        <v>61</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>96</v>
+      </c>
+      <c r="G116" s="3">
+        <v>15</v>
+      </c>
+      <c r="H116" s="3">
+        <v>297</v>
+      </c>
+      <c r="I116" s="6">
+        <v>297</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="6"/>
+      <c r="B117" s="3">
+        <v>10384</v>
+      </c>
+      <c r="C117" s="3">
+        <v>8906</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>32196</v>
+      </c>
+      <c r="G117" s="3">
+        <v>16975</v>
+      </c>
+      <c r="H117" s="3">
+        <v>156545</v>
+      </c>
+      <c r="I117" s="6">
+        <v>156545</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="6"/>
+      <c r="B118" s="3">
+        <v>14</v>
+      </c>
+      <c r="C118" s="3">
+        <v>73</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>143</v>
+      </c>
+      <c r="G118" s="3">
+        <v>47</v>
+      </c>
+      <c r="H118" s="3">
+        <v>366</v>
+      </c>
+      <c r="I118" s="6">
+        <v>366</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="6"/>
+      <c r="B119" s="3">
+        <v>9572</v>
+      </c>
+      <c r="C119" s="3">
+        <v>13024</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>40207</v>
+      </c>
+      <c r="G119" s="3">
+        <v>39317</v>
+      </c>
+      <c r="H119" s="3">
+        <v>164398</v>
+      </c>
+      <c r="I119" s="6">
+        <v>164398</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="6"/>
+      <c r="B120" s="3">
+        <v>26</v>
+      </c>
+      <c r="C120" s="3">
+        <v>17</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>137</v>
+      </c>
+      <c r="G120" s="3">
+        <v>27</v>
+      </c>
+      <c r="H120" s="3">
+        <v>480</v>
+      </c>
+      <c r="I120" s="6">
+        <v>480</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="6"/>
+      <c r="B121" s="3">
+        <v>28848</v>
+      </c>
+      <c r="C121" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>42963</v>
+      </c>
+      <c r="G121" s="3">
+        <v>27011</v>
+      </c>
+      <c r="H121" s="3">
+        <v>213448</v>
+      </c>
+      <c r="I121" s="6">
+        <v>213448</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="6"/>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="6"/>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="6"/>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="6"/>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="6"/>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="6"/>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="6"/>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="6"/>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="6"/>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="6"/>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="6"/>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="6"/>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="6"/>
+      <c r="B134" s="3">
+        <v>23377</v>
+      </c>
+      <c r="C134" s="3">
+        <v>28750</v>
+      </c>
+      <c r="D134" s="3">
+        <v>4927</v>
+      </c>
+      <c r="E134" s="3">
+        <v>44</v>
+      </c>
+      <c r="F134" s="3">
+        <v>249698</v>
+      </c>
+      <c r="G134" s="3">
+        <v>5818</v>
+      </c>
+      <c r="H134" s="3">
+        <v>43947</v>
+      </c>
+      <c r="I134" s="6">
+        <v>135180</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="6"/>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="6"/>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="6"/>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="6"/>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="6"/>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="6"/>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="6"/>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="6"/>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="6"/>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="6"/>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="6"/>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="6"/>
+      <c r="B146" s="3">
+        <v>20806</v>
+      </c>
+      <c r="C146" s="3">
+        <v>26343</v>
+      </c>
+      <c r="D146" s="3">
+        <v>416</v>
+      </c>
+      <c r="E146" s="3">
+        <v>30</v>
+      </c>
+      <c r="F146" s="3">
+        <v>235115</v>
+      </c>
+      <c r="G146" s="3">
+        <v>3377</v>
+      </c>
+      <c r="H146" s="3">
+        <v>37979</v>
+      </c>
+      <c r="I146" s="6">
+        <v>103241</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="6"/>
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="6"/>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="6"/>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="6"/>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="6"/>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="6"/>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="6"/>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="6"/>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="6"/>
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="6"/>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="6"/>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="6"/>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="6"/>
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="6"/>
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="6"/>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="6"/>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="6"/>
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="6"/>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="6"/>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="6"/>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="6"/>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="6"/>
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="6"/>
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="6"/>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="6"/>
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="6"/>
+      <c r="B172" s="3">
+        <v>262208627</v>
+      </c>
+      <c r="C172" s="3">
+        <v>151485979</v>
+      </c>
+      <c r="D172" s="3">
+        <v>38132223</v>
+      </c>
+      <c r="E172" s="3">
+        <v>4707468</v>
+      </c>
+      <c r="F172" s="3">
+        <v>419327541</v>
+      </c>
+      <c r="G172" s="3">
+        <v>219329695</v>
+      </c>
+      <c r="H172" s="3">
+        <v>423107697</v>
+      </c>
+      <c r="I172" s="6">
+        <v>1334468023</v>
+      </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="6"/>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="6"/>
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="6"/>
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="6"/>
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="6"/>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="12"/>
@@ -5887,11 +7300,11 @@
   </sheetPr>
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72:C79"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6049,10 +7462,10 @@
         <v>77</v>
       </c>
       <c r="B14" s="3">
-        <v>78051</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>2619625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6060,10 +7473,10 @@
         <v>78</v>
       </c>
       <c r="B15" s="3">
-        <v>93047133</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6">
-        <v>1205855370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6071,10 +7484,10 @@
         <v>79</v>
       </c>
       <c r="B16" s="3">
-        <v>95876</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6">
-        <v>2963034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6082,10 +7495,10 @@
         <v>80</v>
       </c>
       <c r="B17" s="3">
-        <v>117518261</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6">
-        <v>1363515199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6093,10 +7506,10 @@
         <v>81</v>
       </c>
       <c r="B18" s="3">
-        <v>122257</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>3814313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6104,10 +7517,10 @@
         <v>82</v>
       </c>
       <c r="B19" s="3">
-        <v>157213186</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>1951470848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6247,10 +7660,10 @@
         <v>95</v>
       </c>
       <c r="B32" s="3">
-        <v>36116</v>
+        <v>2619625</v>
       </c>
       <c r="C32" s="6">
-        <v>1876633</v>
+        <v>78051</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6258,10 +7671,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="3">
-        <v>7661110</v>
+        <v>1205855370</v>
       </c>
       <c r="C33" s="6">
-        <v>235872530</v>
+        <v>93047133</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6269,10 +7682,10 @@
         <v>97</v>
       </c>
       <c r="B34" s="3">
-        <v>46621</v>
+        <v>2963034</v>
       </c>
       <c r="C34" s="6">
-        <v>2410467</v>
+        <v>95876</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6280,10 +7693,10 @@
         <v>98</v>
       </c>
       <c r="B35" s="3">
-        <v>11312735</v>
+        <v>1363515199</v>
       </c>
       <c r="C35" s="6">
-        <v>315861704</v>
+        <v>117518261</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6291,10 +7704,10 @@
         <v>99</v>
       </c>
       <c r="B36" s="3">
-        <v>73792</v>
+        <v>3814313</v>
       </c>
       <c r="C36" s="6">
-        <v>3623899</v>
+        <v>122257</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6302,10 +7715,10 @@
         <v>100</v>
       </c>
       <c r="B37" s="3">
-        <v>21665538</v>
+        <v>1951470848</v>
       </c>
       <c r="C37" s="6">
-        <v>478430412</v>
+        <v>157213186</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6379,10 +7792,10 @@
         <v>107</v>
       </c>
       <c r="B44" s="3">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="C44" s="6">
-        <v>143659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6390,10 +7803,10 @@
         <v>108</v>
       </c>
       <c r="B45" s="3">
-        <v>548915</v>
+        <v>0</v>
       </c>
       <c r="C45" s="6">
-        <v>32911829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6401,10 +7814,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="3">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="C46" s="6">
-        <v>150389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6412,10 +7825,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="3">
-        <v>519298</v>
+        <v>0</v>
       </c>
       <c r="C47" s="6">
-        <v>34803707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6423,10 +7836,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="3">
-        <v>1562</v>
+        <v>0</v>
       </c>
       <c r="C48" s="6">
-        <v>191199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6434,10 +7847,10 @@
         <v>112</v>
       </c>
       <c r="B49" s="3">
-        <v>650817</v>
+        <v>0</v>
       </c>
       <c r="C49" s="6">
-        <v>46054586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6445,10 +7858,10 @@
         <v>119</v>
       </c>
       <c r="B50" s="3">
-        <v>10295</v>
+        <v>0</v>
       </c>
       <c r="C50" s="6">
-        <v>533456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6456,10 +7869,10 @@
         <v>120</v>
       </c>
       <c r="B51" s="3">
-        <v>1699247</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6">
-        <v>23448750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6467,10 +7880,10 @@
         <v>121</v>
       </c>
       <c r="B52" s="3">
-        <v>11625</v>
+        <v>0</v>
       </c>
       <c r="C52" s="6">
-        <v>643389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6478,10 +7891,10 @@
         <v>122</v>
       </c>
       <c r="B53" s="3">
-        <v>2162855</v>
+        <v>0</v>
       </c>
       <c r="C53" s="6">
-        <v>30440940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6489,10 +7902,10 @@
         <v>123</v>
       </c>
       <c r="B54" s="3">
-        <v>14717</v>
+        <v>0</v>
       </c>
       <c r="C54" s="6">
-        <v>840070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6500,10 +7913,10 @@
         <v>124</v>
       </c>
       <c r="B55" s="3">
-        <v>3247611</v>
+        <v>0</v>
       </c>
       <c r="C55" s="6">
-        <v>43627838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6511,10 +7924,10 @@
         <v>125</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>1876633</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>36116</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6522,10 +7935,10 @@
         <v>126</v>
       </c>
       <c r="B57" s="3">
-        <v>0</v>
+        <v>235872530</v>
       </c>
       <c r="C57" s="6">
-        <v>0</v>
+        <v>7661110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6533,10 +7946,10 @@
         <v>127</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>2410467</v>
       </c>
       <c r="C58" s="6">
-        <v>0</v>
+        <v>46621</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6544,10 +7957,10 @@
         <v>128</v>
       </c>
       <c r="B59" s="3">
-        <v>0</v>
+        <v>315861704</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>11312735</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6555,10 +7968,10 @@
         <v>129</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
+        <v>3623899</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>73792</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6566,10 +7979,10 @@
         <v>130</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
+        <v>478430412</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>21665538</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6577,10 +7990,10 @@
         <v>131</v>
       </c>
       <c r="B62" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C62" s="6">
-        <v>4864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6588,10 +8001,10 @@
         <v>132</v>
       </c>
       <c r="B63" s="3">
-        <v>106855</v>
+        <v>0</v>
       </c>
       <c r="C63" s="6">
-        <v>5067975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6599,10 +8012,10 @@
         <v>133</v>
       </c>
       <c r="B64" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C64" s="6">
-        <v>5537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6610,10 +8023,10 @@
         <v>134</v>
       </c>
       <c r="B65" s="3">
-        <v>145817</v>
+        <v>0</v>
       </c>
       <c r="C65" s="6">
-        <v>5654602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6621,10 +8034,10 @@
         <v>135</v>
       </c>
       <c r="B66" s="3">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="C66" s="6">
-        <v>6868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6632,10 +8045,10 @@
         <v>136</v>
       </c>
       <c r="B67" s="3">
-        <v>199658</v>
+        <v>0</v>
       </c>
       <c r="C67" s="6">
-        <v>7956651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6643,10 +8056,10 @@
         <v>137</v>
       </c>
       <c r="B68" s="3">
-        <v>144367</v>
+        <v>143659</v>
       </c>
       <c r="C68" s="6">
-        <v>5524021</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6654,10 +8067,10 @@
         <v>138</v>
       </c>
       <c r="B69" s="3">
-        <v>0</v>
+        <v>32911829</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>548915</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6665,10 +8078,10 @@
         <v>139</v>
       </c>
       <c r="B70" s="3">
-        <v>144430</v>
+        <v>150389</v>
       </c>
       <c r="C70" s="6">
-        <v>5532183</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6676,10 +8089,10 @@
         <v>140</v>
       </c>
       <c r="B71" s="3">
-        <v>20142</v>
+        <v>34803707</v>
       </c>
       <c r="C71" s="6">
-        <v>972167</v>
+        <v>519298</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6687,10 +8100,10 @@
         <v>141</v>
       </c>
       <c r="B72" s="3">
-        <v>0</v>
+        <v>191199</v>
       </c>
       <c r="C72" s="6">
-        <v>0</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6698,10 +8111,10 @@
         <v>142</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
+        <v>46054586</v>
       </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>650817</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6819,10 +8232,10 @@
         <v>153</v>
       </c>
       <c r="B84" s="3">
-        <v>20142</v>
+        <v>0</v>
       </c>
       <c r="C84" s="6">
-        <v>972167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6830,10 +8243,10 @@
         <v>154</v>
       </c>
       <c r="B85" s="3">
-        <v>31583</v>
+        <v>0</v>
       </c>
       <c r="C85" s="6">
-        <v>1181692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6841,10 +8254,10 @@
         <v>161</v>
       </c>
       <c r="B86" s="3">
-        <v>56451</v>
+        <v>533456</v>
       </c>
       <c r="C86" s="6">
-        <v>3180847</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6852,10 +8265,10 @@
         <v>162</v>
       </c>
       <c r="B87" s="3">
-        <v>327</v>
+        <v>23448750</v>
       </c>
       <c r="C87" s="6">
-        <v>16557</v>
+        <v>1699247</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6863,10 +8276,10 @@
         <v>163</v>
       </c>
       <c r="B88" s="3">
-        <v>31395</v>
+        <v>643389</v>
       </c>
       <c r="C88" s="6">
-        <v>1574418</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6874,10 +8287,10 @@
         <v>164</v>
       </c>
       <c r="B89" s="3">
-        <v>2839</v>
+        <v>30440940</v>
       </c>
       <c r="C89" s="6">
-        <v>98569</v>
+        <v>2162855</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6885,10 +8298,10 @@
         <v>165</v>
       </c>
       <c r="B90" s="3">
-        <v>3081</v>
+        <v>840070</v>
       </c>
       <c r="C90" s="6">
-        <v>15254</v>
+        <v>14717</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6896,10 +8309,10 @@
         <v>166</v>
       </c>
       <c r="B91" s="3">
-        <v>8756</v>
+        <v>43627838</v>
       </c>
       <c r="C91" s="6">
-        <v>187681</v>
+        <v>3247611</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6983,393 +8396,617 @@
       <c r="A99" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="6"/>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="6"/>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
+      <c r="B104" s="3">
+        <v>4864</v>
+      </c>
+      <c r="C104" s="6">
+        <v>82</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="6"/>
+      <c r="B105" s="3">
+        <v>5067975</v>
+      </c>
+      <c r="C105" s="6">
+        <v>106855</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="3">
+        <v>5537</v>
+      </c>
+      <c r="C106" s="6">
+        <v>122</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="6"/>
+      <c r="B107" s="3">
+        <v>5654602</v>
+      </c>
+      <c r="C107" s="6">
+        <v>145817</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="3">
+        <v>6868</v>
+      </c>
+      <c r="C108" s="6">
+        <v>134</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="6"/>
+      <c r="B109" s="3">
+        <v>7956651</v>
+      </c>
+      <c r="C109" s="6">
+        <v>199658</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="6"/>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="6"/>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="6"/>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="6"/>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="6"/>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="6"/>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="6"/>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="6"/>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="6"/>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="6"/>
+      <c r="B122" s="3">
+        <v>5532183</v>
+      </c>
+      <c r="C122" s="6">
+        <v>144430</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="6"/>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="6"/>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="6"/>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="6"/>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="6"/>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="6"/>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="6"/>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="6"/>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="6"/>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="6"/>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="6"/>
+      <c r="B134" s="3">
+        <v>5524021</v>
+      </c>
+      <c r="C134" s="6">
+        <v>144367</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="3">
+        <v>972167</v>
+      </c>
+      <c r="C135" s="6">
+        <v>20142</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="6"/>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="6"/>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="6"/>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="6"/>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="6"/>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="6"/>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="6"/>
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="6"/>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="6"/>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="6"/>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="6"/>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="6"/>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="6"/>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="21"/>
@@ -7388,11 +9025,11 @@
   </sheetPr>
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7654,7 +9291,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="6">
-        <v>8754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7662,7 +9299,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="6">
-        <v>755952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7670,7 +9307,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="6">
-        <v>22832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7678,7 +9315,7 @@
         <v>98</v>
       </c>
       <c r="B35" s="6">
-        <v>2774840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7686,7 +9323,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="6">
-        <v>20405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7694,7 +9331,7 @@
         <v>100</v>
       </c>
       <c r="B37" s="6">
-        <v>2023196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7798,7 +9435,7 @@
         <v>119</v>
       </c>
       <c r="B50" s="6">
-        <v>3820</v>
+        <v>1876633</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7806,7 +9443,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="6">
-        <v>126127</v>
+        <v>235872530</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7814,7 +9451,7 @@
         <v>121</v>
       </c>
       <c r="B52" s="6">
-        <v>4092</v>
+        <v>2410467</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7822,7 +9459,7 @@
         <v>122</v>
       </c>
       <c r="B53" s="6">
-        <v>140401</v>
+        <v>315861704</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7830,7 +9467,7 @@
         <v>123</v>
       </c>
       <c r="B54" s="6">
-        <v>4993</v>
+        <v>3623899</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7838,7 +9475,7 @@
         <v>124</v>
       </c>
       <c r="B55" s="6">
-        <v>186234</v>
+        <v>478430412</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7942,7 +9579,7 @@
         <v>137</v>
       </c>
       <c r="B68" s="6">
-        <v>97804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7958,7 +9595,7 @@
         <v>139</v>
       </c>
       <c r="B70" s="6">
-        <v>107936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7966,7 +9603,7 @@
         <v>140</v>
       </c>
       <c r="B71" s="6">
-        <v>8557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7981,8 +9618,8 @@
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="34" t="s">
-        <v>308</v>
+      <c r="B73" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8038,7 +9675,7 @@
         <v>149</v>
       </c>
       <c r="B80" s="6">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8054,7 +9691,7 @@
         <v>151</v>
       </c>
       <c r="B82" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8062,7 +9699,7 @@
         <v>152</v>
       </c>
       <c r="B83" s="6">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8070,7 +9707,7 @@
         <v>153</v>
       </c>
       <c r="B84" s="6">
-        <v>55432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8086,7 +9723,7 @@
         <v>161</v>
       </c>
       <c r="B86" s="6">
-        <v>713</v>
+        <v>533456</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8094,7 +9731,7 @@
         <v>162</v>
       </c>
       <c r="B87" s="6">
-        <v>15</v>
+        <v>23448750</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8102,7 +9739,7 @@
         <v>163</v>
       </c>
       <c r="B88" s="6">
-        <v>0</v>
+        <v>643389</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8110,7 +9747,7 @@
         <v>164</v>
       </c>
       <c r="B89" s="6">
-        <v>0</v>
+        <v>30440940</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8118,7 +9755,7 @@
         <v>165</v>
       </c>
       <c r="B90" s="6">
-        <v>0</v>
+        <v>840070</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8126,7 +9763,7 @@
         <v>166</v>
       </c>
       <c r="B91" s="6">
-        <v>0</v>
+        <v>43627838</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8134,7 +9771,7 @@
         <v>167</v>
       </c>
       <c r="B92" s="6">
-        <v>8557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8142,7 +9779,7 @@
         <v>168</v>
       </c>
       <c r="B93" s="6">
-        <v>8557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8165,361 +9802,481 @@
       <c r="A96" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="6"/>
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="6"/>
+      <c r="B99" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="6"/>
+      <c r="B100" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="6"/>
+      <c r="B102" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="6"/>
+      <c r="B103" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="6"/>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="6"/>
+      <c r="B105" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="6"/>
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="6"/>
+      <c r="B111" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="6">
+        <v>5532183</v>
+      </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="6"/>
+      <c r="B121" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="6"/>
+      <c r="B130" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="6"/>
+      <c r="B131" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="6">
+        <v>972167</v>
+      </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B136" s="6"/>
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="6"/>
+      <c r="B137" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="6"/>
+      <c r="B138" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B144" s="6"/>
+      <c r="B144" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B146" s="6"/>
+      <c r="B146" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B148" s="6"/>
+      <c r="B148" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B152" s="6"/>
+      <c r="B152" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B154" s="6"/>
+      <c r="B154" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B155" s="6"/>
+      <c r="B155" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="24"/>
@@ -8573,13 +10330,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8588,13 +10345,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8603,13 +10360,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8618,13 +10375,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8633,13 +10390,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="C6" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8648,13 +10405,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="C7" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8663,13 +10420,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8678,13 +10435,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="C9" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8693,13 +10450,13 @@
         <v>73</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8708,13 +10465,13 @@
         <v>74</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="C11" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8723,13 +10480,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8738,13 +10495,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8753,13 +10510,13 @@
         <v>77</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8768,13 +10525,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8783,13 +10540,13 @@
         <v>79</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8798,13 +10555,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8813,13 +10570,13 @@
         <v>81</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8828,13 +10585,13 @@
         <v>82</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8843,13 +10600,13 @@
         <v>83</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="C20" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8858,13 +10615,13 @@
         <v>84</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="C21" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8873,13 +10630,13 @@
         <v>85</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22" s="33" t="s">
+      <c r="C22" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8888,13 +10645,13 @@
         <v>86</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8903,13 +10660,13 @@
         <v>87</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="33" t="s">
+      <c r="C24" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8918,13 +10675,13 @@
         <v>88</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8933,13 +10690,13 @@
         <v>89</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="33" t="s">
+      <c r="C26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8948,13 +10705,13 @@
         <v>90</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8963,13 +10720,13 @@
         <v>91</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="C28" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8978,13 +10735,13 @@
         <v>92</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="33" t="s">
+      <c r="C29" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8993,13 +10750,13 @@
         <v>93</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="33" t="s">
+      <c r="C30" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9008,13 +10765,13 @@
         <v>94</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="C31" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9023,13 +10780,13 @@
         <v>95</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="33" t="s">
+      <c r="C32" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9038,13 +10795,13 @@
         <v>96</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="33" t="s">
+      <c r="C33" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9053,13 +10810,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="C34" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9068,13 +10825,13 @@
         <v>98</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="33" t="s">
+      <c r="C35" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9083,13 +10840,13 @@
         <v>99</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="33" t="s">
+      <c r="C36" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9098,13 +10855,13 @@
         <v>100</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="33" t="s">
+      <c r="C37" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9113,13 +10870,13 @@
         <v>101</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="33" t="s">
+      <c r="C38" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9128,13 +10885,13 @@
         <v>102</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="C39" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9143,13 +10900,13 @@
         <v>103</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40" s="33" t="s">
+      <c r="C40" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9158,13 +10915,13 @@
         <v>104</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="33" t="s">
+      <c r="C41" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9173,13 +10930,13 @@
         <v>105</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" s="33" t="s">
+      <c r="C42" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9188,13 +10945,13 @@
         <v>106</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="33" t="s">
+      <c r="C43" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9203,13 +10960,13 @@
         <v>107</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="33" t="s">
+      <c r="C44" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9218,13 +10975,13 @@
         <v>108</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" s="33" t="s">
+      <c r="C45" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9233,13 +10990,13 @@
         <v>109</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="33" t="s">
+      <c r="C46" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9248,13 +11005,13 @@
         <v>110</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="33" t="s">
+      <c r="C47" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9263,13 +11020,13 @@
         <v>111</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="33" t="s">
+      <c r="C48" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9278,13 +11035,13 @@
         <v>112</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="33" t="s">
+      <c r="C49" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9293,13 +11050,13 @@
         <v>113</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="33" t="s">
+      <c r="C50" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9308,13 +11065,13 @@
         <v>114</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="33" t="s">
+      <c r="C51" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9323,13 +11080,13 @@
         <v>115</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="33" t="s">
+      <c r="C52" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9338,13 +11095,13 @@
         <v>116</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="33" t="s">
+      <c r="C53" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9353,13 +11110,13 @@
         <v>117</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="33" t="s">
+      <c r="C54" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9368,13 +11125,13 @@
         <v>118</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="C55" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>253</v>
       </c>
     </row>
